--- a/data_cleaned_2.xlsx
+++ b/data_cleaned_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\www\Desktop\Portfolio\PoC dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E4C96B-8866-4EC1-8687-93518571F471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD71408-3826-44E5-90F9-48A30B897FED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-113" yWindow="-113" windowWidth="24267" windowHeight="13023" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1185" uniqueCount="61">
   <si>
     <t>Programme</t>
   </si>
@@ -194,6 +194,18 @@
   </si>
   <si>
     <t>How would you rate the quality of teaching?</t>
+  </si>
+  <si>
+    <t>Were you able to attend Welcome Week in person?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -562,7 +574,7 @@
   <dimension ref="A1:N295"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
@@ -595,7 +607,9 @@
       <c r="H1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="I1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
@@ -627,6 +641,9 @@
       <c r="H2">
         <v>4</v>
       </c>
+      <c r="I2" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -653,6 +670,9 @@
       <c r="H3">
         <v>9</v>
       </c>
+      <c r="I3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -679,6 +699,9 @@
       <c r="H4">
         <v>7</v>
       </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
@@ -705,6 +728,9 @@
       <c r="H5">
         <v>5</v>
       </c>
+      <c r="I5" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
@@ -731,6 +757,9 @@
       <c r="H6">
         <v>5</v>
       </c>
+      <c r="I6" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
@@ -757,6 +786,9 @@
       <c r="H7">
         <v>11</v>
       </c>
+      <c r="I7" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -783,6 +815,9 @@
       <c r="H8">
         <v>4</v>
       </c>
+      <c r="I8" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
@@ -809,6 +844,9 @@
       <c r="H9">
         <v>9</v>
       </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
@@ -835,6 +873,9 @@
       <c r="H10">
         <v>6</v>
       </c>
+      <c r="I10" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
@@ -861,6 +902,9 @@
       <c r="H11">
         <v>8</v>
       </c>
+      <c r="I11" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
@@ -887,6 +931,9 @@
       <c r="H12">
         <v>4</v>
       </c>
+      <c r="I12" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
@@ -913,6 +960,9 @@
       <c r="H13">
         <v>5</v>
       </c>
+      <c r="I13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
@@ -939,6 +989,9 @@
       <c r="H14">
         <v>4</v>
       </c>
+      <c r="I14" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
@@ -965,6 +1018,9 @@
       <c r="H15">
         <v>11</v>
       </c>
+      <c r="I15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
@@ -991,8 +1047,11 @@
       <c r="H16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1017,8 +1076,11 @@
       <c r="H17">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>4</v>
       </c>
@@ -1043,8 +1105,11 @@
       <c r="H18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>4</v>
       </c>
@@ -1069,8 +1134,11 @@
       <c r="H19">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1095,8 +1163,11 @@
       <c r="H20">
         <v>10</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1121,8 +1192,11 @@
       <c r="H21">
         <v>10</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1147,8 +1221,11 @@
       <c r="H22">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1173,8 +1250,11 @@
       <c r="H23">
         <v>8</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -1199,8 +1279,11 @@
       <c r="H24">
         <v>7</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -1225,8 +1308,11 @@
       <c r="H25">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -1251,8 +1337,11 @@
       <c r="H26">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -1277,8 +1366,11 @@
       <c r="H27">
         <v>9</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>6</v>
       </c>
@@ -1303,8 +1395,11 @@
       <c r="H28">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>6</v>
       </c>
@@ -1329,8 +1424,11 @@
       <c r="H29">
         <v>7</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>7</v>
       </c>
@@ -1355,8 +1453,11 @@
       <c r="H30">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1381,8 +1482,11 @@
       <c r="H31">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>8</v>
       </c>
@@ -1407,8 +1511,11 @@
       <c r="H32">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>8</v>
       </c>
@@ -1433,8 +1540,11 @@
       <c r="H33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>8</v>
       </c>
@@ -1459,8 +1569,11 @@
       <c r="H34">
         <v>7</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>8</v>
       </c>
@@ -1485,8 +1598,11 @@
       <c r="H35">
         <v>9</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1511,8 +1627,11 @@
       <c r="H36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>8</v>
       </c>
@@ -1537,8 +1656,11 @@
       <c r="H37">
         <v>4</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1563,8 +1685,11 @@
       <c r="H38">
         <v>11</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>9</v>
       </c>
@@ -1589,8 +1714,11 @@
       <c r="H39">
         <v>5</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>9</v>
       </c>
@@ -1615,8 +1743,11 @@
       <c r="H40">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>9</v>
       </c>
@@ -1641,8 +1772,11 @@
       <c r="H41">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>9</v>
       </c>
@@ -1667,8 +1801,11 @@
       <c r="H42">
         <v>8</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>9</v>
       </c>
@@ -1693,8 +1830,11 @@
       <c r="H43">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>9</v>
       </c>
@@ -1719,8 +1859,11 @@
       <c r="H44">
         <v>8</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1745,8 +1888,11 @@
       <c r="H45">
         <v>5</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>9</v>
       </c>
@@ -1771,8 +1917,11 @@
       <c r="H46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -1797,8 +1946,11 @@
       <c r="H47">
         <v>8</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -1823,8 +1975,11 @@
       <c r="H48">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -1849,8 +2004,11 @@
       <c r="H49">
         <v>11</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -1875,8 +2033,11 @@
       <c r="H50">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -1901,8 +2062,11 @@
       <c r="H51">
         <v>6</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -1927,8 +2091,11 @@
       <c r="H52">
         <v>4</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>11</v>
       </c>
@@ -1953,8 +2120,11 @@
       <c r="H53">
         <v>8</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>11</v>
       </c>
@@ -1979,8 +2149,11 @@
       <c r="H54">
         <v>11</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>11</v>
       </c>
@@ -2005,8 +2178,11 @@
       <c r="H55">
         <v>4</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>11</v>
       </c>
@@ -2031,8 +2207,11 @@
       <c r="H56">
         <v>4</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>11</v>
       </c>
@@ -2057,8 +2236,11 @@
       <c r="H57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2083,8 +2265,11 @@
       <c r="H58">
         <v>8</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2109,8 +2294,11 @@
       <c r="H59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -2135,8 +2323,11 @@
       <c r="H60">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -2161,8 +2352,11 @@
       <c r="H61">
         <v>11</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2187,8 +2381,11 @@
       <c r="H62">
         <v>8</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>13</v>
       </c>
@@ -2213,8 +2410,11 @@
       <c r="H63">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>13</v>
       </c>
@@ -2239,8 +2439,11 @@
       <c r="H64">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>14</v>
       </c>
@@ -2265,8 +2468,11 @@
       <c r="H65">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>14</v>
       </c>
@@ -2291,8 +2497,11 @@
       <c r="H66">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>15</v>
       </c>
@@ -2317,8 +2526,11 @@
       <c r="H67">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>15</v>
       </c>
@@ -2343,8 +2555,11 @@
       <c r="H68">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -2369,8 +2584,11 @@
       <c r="H69">
         <v>6</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -2395,8 +2613,11 @@
       <c r="H70">
         <v>8</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -2421,8 +2642,11 @@
       <c r="H71">
         <v>8</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -2447,8 +2671,11 @@
       <c r="H72">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -2473,8 +2700,11 @@
       <c r="H73">
         <v>8</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -2499,8 +2729,11 @@
       <c r="H74">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -2525,8 +2758,11 @@
       <c r="H75">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -2551,8 +2787,11 @@
       <c r="H76">
         <v>6</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -2577,8 +2816,11 @@
       <c r="H77">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -2603,8 +2845,11 @@
       <c r="H78">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -2629,8 +2874,11 @@
       <c r="H79">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>18</v>
       </c>
@@ -2655,8 +2903,11 @@
       <c r="H80">
         <v>9</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>18</v>
       </c>
@@ -2681,8 +2932,11 @@
       <c r="H81">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>18</v>
       </c>
@@ -2707,8 +2961,11 @@
       <c r="H82">
         <v>11</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>18</v>
       </c>
@@ -2733,8 +2990,11 @@
       <c r="H83">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>18</v>
       </c>
@@ -2759,8 +3019,11 @@
       <c r="H84">
         <v>10</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>19</v>
       </c>
@@ -2785,8 +3048,11 @@
       <c r="H85">
         <v>11</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -2811,8 +3077,11 @@
       <c r="H86">
         <v>10</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>21</v>
       </c>
@@ -2837,8 +3106,11 @@
       <c r="H87">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>21</v>
       </c>
@@ -2863,8 +3135,11 @@
       <c r="H88">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>22</v>
       </c>
@@ -2889,8 +3164,11 @@
       <c r="H89">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>23</v>
       </c>
@@ -2915,8 +3193,11 @@
       <c r="H90">
         <v>6</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2941,8 +3222,11 @@
       <c r="H91">
         <v>8</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -2967,8 +3251,11 @@
       <c r="H92">
         <v>5</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>26</v>
       </c>
@@ -2993,8 +3280,11 @@
       <c r="H93">
         <v>6</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>27</v>
       </c>
@@ -3019,8 +3309,11 @@
       <c r="H94">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>28</v>
       </c>
@@ -3045,8 +3338,11 @@
       <c r="H95">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>28</v>
       </c>
@@ -3071,8 +3367,11 @@
       <c r="H96">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>29</v>
       </c>
@@ -3097,8 +3396,11 @@
       <c r="H97">
         <v>4</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>29</v>
       </c>
@@ -3123,8 +3425,11 @@
       <c r="H98">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>30</v>
       </c>
@@ -3149,8 +3454,11 @@
       <c r="H99">
         <v>6</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>31</v>
       </c>
@@ -3175,8 +3483,11 @@
       <c r="H100">
         <v>5</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>32</v>
       </c>
@@ -3201,8 +3512,11 @@
       <c r="H101">
         <v>11</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>33</v>
       </c>
@@ -3227,8 +3541,11 @@
       <c r="H102">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>34</v>
       </c>
@@ -3253,8 +3570,11 @@
       <c r="H103">
         <v>5</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>34</v>
       </c>
@@ -3279,8 +3599,11 @@
       <c r="H104">
         <v>5</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>35</v>
       </c>
@@ -3305,8 +3628,11 @@
       <c r="H105">
         <v>8</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>35</v>
       </c>
@@ -3331,8 +3657,11 @@
       <c r="H106">
         <v>7</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>35</v>
       </c>
@@ -3357,8 +3686,11 @@
       <c r="H107">
         <v>6</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>35</v>
       </c>
@@ -3383,8 +3715,11 @@
       <c r="H108">
         <v>4</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>35</v>
       </c>
@@ -3409,8 +3744,11 @@
       <c r="H109">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -3435,8 +3773,11 @@
       <c r="H110">
         <v>5</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>35</v>
       </c>
@@ -3461,8 +3802,11 @@
       <c r="H111">
         <v>7</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>35</v>
       </c>
@@ -3487,8 +3831,11 @@
       <c r="H112">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>35</v>
       </c>
@@ -3513,8 +3860,11 @@
       <c r="H113">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>35</v>
       </c>
@@ -3539,8 +3889,11 @@
       <c r="H114">
         <v>4</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>36</v>
       </c>
@@ -3565,8 +3918,11 @@
       <c r="H115">
         <v>11</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>36</v>
       </c>
@@ -3591,8 +3947,11 @@
       <c r="H116">
         <v>11</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>37</v>
       </c>
@@ -3617,8 +3976,11 @@
       <c r="H117">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>38</v>
       </c>
@@ -3643,8 +4005,11 @@
       <c r="H118">
         <v>11</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>38</v>
       </c>
@@ -3669,8 +4034,11 @@
       <c r="H119">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>38</v>
       </c>
@@ -3695,8 +4063,11 @@
       <c r="H120">
         <v>7</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>38</v>
       </c>
@@ -3721,8 +4092,11 @@
       <c r="H121">
         <v>4</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>38</v>
       </c>
@@ -3747,8 +4121,11 @@
       <c r="H122">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>38</v>
       </c>
@@ -3773,8 +4150,11 @@
       <c r="H123">
         <v>7</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>39</v>
       </c>
@@ -3799,8 +4179,11 @@
       <c r="H124">
         <v>4</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>39</v>
       </c>
@@ -3825,8 +4208,11 @@
       <c r="H125">
         <v>5</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>39</v>
       </c>
@@ -3851,8 +4237,11 @@
       <c r="H126">
         <v>11</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>39</v>
       </c>
@@ -3877,8 +4266,11 @@
       <c r="H127">
         <v>6</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>39</v>
       </c>
@@ -3903,8 +4295,11 @@
       <c r="H128">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>39</v>
       </c>
@@ -3929,8 +4324,11 @@
       <c r="H129">
         <v>8</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>39</v>
       </c>
@@ -3955,8 +4353,11 @@
       <c r="H130">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>40</v>
       </c>
@@ -3981,8 +4382,11 @@
       <c r="H131">
         <v>7</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>40</v>
       </c>
@@ -4007,8 +4411,11 @@
       <c r="H132">
         <v>9</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>40</v>
       </c>
@@ -4033,8 +4440,11 @@
       <c r="H133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>40</v>
       </c>
@@ -4059,8 +4469,11 @@
       <c r="H134">
         <v>4</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>40</v>
       </c>
@@ -4085,8 +4498,11 @@
       <c r="H135">
         <v>5</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>40</v>
       </c>
@@ -4111,8 +4527,11 @@
       <c r="H136">
         <v>8</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>40</v>
       </c>
@@ -4137,8 +4556,11 @@
       <c r="H137">
         <v>9</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>40</v>
       </c>
@@ -4163,8 +4585,11 @@
       <c r="H138">
         <v>6</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>40</v>
       </c>
@@ -4189,8 +4614,11 @@
       <c r="H139">
         <v>11</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>40</v>
       </c>
@@ -4215,8 +4643,11 @@
       <c r="H140">
         <v>8</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>40</v>
       </c>
@@ -4241,8 +4672,11 @@
       <c r="H141">
         <v>4</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>40</v>
       </c>
@@ -4267,8 +4701,11 @@
       <c r="H142">
         <v>7</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>40</v>
       </c>
@@ -4293,8 +4730,11 @@
       <c r="H143">
         <v>9</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>41</v>
       </c>
@@ -4319,8 +4759,11 @@
       <c r="H144">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>41</v>
       </c>
@@ -4345,8 +4788,11 @@
       <c r="H145">
         <v>10</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>41</v>
       </c>
@@ -4371,8 +4817,11 @@
       <c r="H146">
         <v>6</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>41</v>
       </c>
@@ -4397,8 +4846,11 @@
       <c r="H147">
         <v>8</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>41</v>
       </c>
@@ -4423,8 +4875,11 @@
       <c r="H148">
         <v>5</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>1</v>
       </c>
@@ -4449,8 +4904,11 @@
       <c r="H149">
         <v>4</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -4475,8 +4933,11 @@
       <c r="H150">
         <v>9</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>1</v>
       </c>
@@ -4501,8 +4962,11 @@
       <c r="H151">
         <v>5</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>2</v>
       </c>
@@ -4527,8 +4991,11 @@
       <c r="H152">
         <v>4</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>2</v>
       </c>
@@ -4553,8 +5020,11 @@
       <c r="H153">
         <v>3</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -4579,8 +5049,11 @@
       <c r="H154">
         <v>9</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>3</v>
       </c>
@@ -4605,8 +5078,11 @@
       <c r="H155">
         <v>2</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>3</v>
       </c>
@@ -4631,8 +5107,11 @@
       <c r="H156">
         <v>11</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>3</v>
       </c>
@@ -4657,8 +5136,11 @@
       <c r="H157">
         <v>5</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>3</v>
       </c>
@@ -4683,8 +5165,11 @@
       <c r="H158">
         <v>8</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>3</v>
       </c>
@@ -4709,8 +5194,11 @@
       <c r="H159">
         <v>2</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>3</v>
       </c>
@@ -4735,8 +5223,11 @@
       <c r="H160">
         <v>4</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>3</v>
       </c>
@@ -4761,8 +5252,11 @@
       <c r="H161">
         <v>3</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>4</v>
       </c>
@@ -4787,8 +5281,11 @@
       <c r="H162">
         <v>13</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>4</v>
       </c>
@@ -4813,8 +5310,11 @@
       <c r="H163">
         <v>9</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>4</v>
       </c>
@@ -4839,8 +5339,11 @@
       <c r="H164">
         <v>11</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>4</v>
       </c>
@@ -4865,8 +5368,11 @@
       <c r="H165">
         <v>12</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>4</v>
       </c>
@@ -4891,8 +5397,11 @@
       <c r="H166">
         <v>7</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>5</v>
       </c>
@@ -4917,8 +5426,11 @@
       <c r="H167">
         <v>11</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>5</v>
       </c>
@@ -4943,8 +5455,11 @@
       <c r="H168">
         <v>12</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>6</v>
       </c>
@@ -4969,8 +5484,11 @@
       <c r="H169">
         <v>5</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>6</v>
       </c>
@@ -4995,8 +5513,11 @@
       <c r="H170">
         <v>6</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>6</v>
       </c>
@@ -5021,8 +5542,11 @@
       <c r="H171">
         <v>9</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>6</v>
       </c>
@@ -5047,8 +5571,11 @@
       <c r="H172">
         <v>9</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>6</v>
       </c>
@@ -5073,8 +5600,11 @@
       <c r="H173">
         <v>10</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>6</v>
       </c>
@@ -5099,8 +5629,11 @@
       <c r="H174">
         <v>11</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>6</v>
       </c>
@@ -5125,8 +5658,11 @@
       <c r="H175">
         <v>3</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>6</v>
       </c>
@@ -5151,8 +5687,11 @@
       <c r="H176">
         <v>8</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>7</v>
       </c>
@@ -5177,8 +5716,11 @@
       <c r="H177">
         <v>9</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>8</v>
       </c>
@@ -5203,8 +5745,11 @@
       <c r="H178">
         <v>4</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>8</v>
       </c>
@@ -5229,8 +5774,11 @@
       <c r="H179">
         <v>7</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I179" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>8</v>
       </c>
@@ -5255,8 +5803,11 @@
       <c r="H180">
         <v>10</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>8</v>
       </c>
@@ -5281,8 +5832,11 @@
       <c r="H181">
         <v>7</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>8</v>
       </c>
@@ -5307,8 +5861,11 @@
       <c r="H182">
         <v>9</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I182" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>8</v>
       </c>
@@ -5333,8 +5890,11 @@
       <c r="H183">
         <v>3</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>8</v>
       </c>
@@ -5359,8 +5919,11 @@
       <c r="H184">
         <v>3</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I184" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>8</v>
       </c>
@@ -5385,8 +5948,11 @@
       <c r="H185">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I185" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>9</v>
       </c>
@@ -5411,8 +5977,11 @@
       <c r="H186">
         <v>3</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I186" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>9</v>
       </c>
@@ -5437,8 +6006,11 @@
       <c r="H187">
         <v>13</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I187" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>9</v>
       </c>
@@ -5463,8 +6035,11 @@
       <c r="H188">
         <v>11</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I188" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>9</v>
       </c>
@@ -5489,8 +6064,11 @@
       <c r="H189">
         <v>9</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I189" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>9</v>
       </c>
@@ -5515,8 +6093,11 @@
       <c r="H190">
         <v>12</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I190" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>9</v>
       </c>
@@ -5541,8 +6122,11 @@
       <c r="H191">
         <v>9</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I191" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>9</v>
       </c>
@@ -5567,8 +6151,11 @@
       <c r="H192">
         <v>4</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>9</v>
       </c>
@@ -5593,8 +6180,11 @@
       <c r="H193">
         <v>6</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>10</v>
       </c>
@@ -5619,8 +6209,11 @@
       <c r="H194">
         <v>6</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I194" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>10</v>
       </c>
@@ -5645,8 +6238,11 @@
       <c r="H195">
         <v>8</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>10</v>
       </c>
@@ -5671,8 +6267,11 @@
       <c r="H196">
         <v>12</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>10</v>
       </c>
@@ -5697,8 +6296,11 @@
       <c r="H197">
         <v>8</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I197" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>10</v>
       </c>
@@ -5723,8 +6325,11 @@
       <c r="H198">
         <v>5</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>10</v>
       </c>
@@ -5749,8 +6354,11 @@
       <c r="H199">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>11</v>
       </c>
@@ -5775,8 +6383,11 @@
       <c r="H200">
         <v>7</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I200" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>11</v>
       </c>
@@ -5801,8 +6412,11 @@
       <c r="H201">
         <v>12</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I201" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>11</v>
       </c>
@@ -5827,8 +6441,11 @@
       <c r="H202">
         <v>3</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I202" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>11</v>
       </c>
@@ -5853,8 +6470,11 @@
       <c r="H203">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I203" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>11</v>
       </c>
@@ -5879,8 +6499,11 @@
       <c r="H204">
         <v>11</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I204" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>12</v>
       </c>
@@ -5905,8 +6528,11 @@
       <c r="H205">
         <v>6</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I205" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>12</v>
       </c>
@@ -5931,8 +6557,11 @@
       <c r="H206">
         <v>6</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I206" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>12</v>
       </c>
@@ -5957,8 +6586,11 @@
       <c r="H207">
         <v>6</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I207" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>12</v>
       </c>
@@ -5983,8 +6615,11 @@
       <c r="H208">
         <v>10</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I208" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>12</v>
       </c>
@@ -6009,8 +6644,11 @@
       <c r="H209">
         <v>7</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I209" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>13</v>
       </c>
@@ -6035,8 +6673,11 @@
       <c r="H210">
         <v>12</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I210" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>13</v>
       </c>
@@ -6061,8 +6702,11 @@
       <c r="H211">
         <v>12</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I211" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>14</v>
       </c>
@@ -6087,8 +6731,11 @@
       <c r="H212">
         <v>6</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I212" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>14</v>
       </c>
@@ -6113,8 +6760,11 @@
       <c r="H213">
         <v>8</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I213" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>15</v>
       </c>
@@ -6139,8 +6789,11 @@
       <c r="H214">
         <v>6</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I214" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>15</v>
       </c>
@@ -6165,8 +6818,11 @@
       <c r="H215">
         <v>8</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I215" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>16</v>
       </c>
@@ -6191,8 +6847,11 @@
       <c r="H216">
         <v>6</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I216" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>17</v>
       </c>
@@ -6217,8 +6876,11 @@
       <c r="H217">
         <v>7</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I217" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>17</v>
       </c>
@@ -6243,8 +6905,11 @@
       <c r="H218">
         <v>9</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I218" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>17</v>
       </c>
@@ -6269,8 +6934,11 @@
       <c r="H219">
         <v>4</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I219" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>17</v>
       </c>
@@ -6295,8 +6963,11 @@
       <c r="H220">
         <v>6</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I220" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>17</v>
       </c>
@@ -6321,8 +6992,11 @@
       <c r="H221">
         <v>11</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I221" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>18</v>
       </c>
@@ -6347,8 +7021,11 @@
       <c r="H222">
         <v>10</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I222" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>18</v>
       </c>
@@ -6373,8 +7050,11 @@
       <c r="H223">
         <v>4</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I223" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>18</v>
       </c>
@@ -6399,8 +7079,11 @@
       <c r="H224">
         <v>4</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I224" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>18</v>
       </c>
@@ -6425,8 +7108,11 @@
       <c r="H225">
         <v>12</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I225" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>18</v>
       </c>
@@ -6451,8 +7137,11 @@
       <c r="H226">
         <v>4</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I226" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -6477,8 +7166,11 @@
       <c r="H227">
         <v>9</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I227" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>18</v>
       </c>
@@ -6503,8 +7195,11 @@
       <c r="H228">
         <v>11</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I228" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>18</v>
       </c>
@@ -6529,8 +7224,11 @@
       <c r="H229">
         <v>11</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I229" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>18</v>
       </c>
@@ -6555,8 +7253,11 @@
       <c r="H230">
         <v>9</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I230" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>18</v>
       </c>
@@ -6581,8 +7282,11 @@
       <c r="H231">
         <v>10</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I231" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>19</v>
       </c>
@@ -6607,8 +7311,11 @@
       <c r="H232">
         <v>12</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I232" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>20</v>
       </c>
@@ -6633,8 +7340,11 @@
       <c r="H233">
         <v>11</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I233" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>21</v>
       </c>
@@ -6659,8 +7369,11 @@
       <c r="H234">
         <v>4</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I234" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>21</v>
       </c>
@@ -6685,8 +7398,11 @@
       <c r="H235">
         <v>5</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I235" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>22</v>
       </c>
@@ -6711,8 +7427,11 @@
       <c r="H236">
         <v>5</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I236" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>23</v>
       </c>
@@ -6737,8 +7456,11 @@
       <c r="H237">
         <v>8</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I237" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>24</v>
       </c>
@@ -6763,8 +7485,11 @@
       <c r="H238">
         <v>8</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I238" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>25</v>
       </c>
@@ -6789,8 +7514,11 @@
       <c r="H239">
         <v>4</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I239" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>26</v>
       </c>
@@ -6815,8 +7543,11 @@
       <c r="H240">
         <v>5</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I240" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>27</v>
       </c>
@@ -6841,8 +7572,11 @@
       <c r="H241">
         <v>6</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I241" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>28</v>
       </c>
@@ -6867,8 +7601,11 @@
       <c r="H242">
         <v>5</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I242" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>28</v>
       </c>
@@ -6893,8 +7630,11 @@
       <c r="H243">
         <v>4</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I243" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>29</v>
       </c>
@@ -6919,8 +7659,11 @@
       <c r="H244">
         <v>4</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I244" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>29</v>
       </c>
@@ -6945,8 +7688,11 @@
       <c r="H245">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I245" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -6971,8 +7717,11 @@
       <c r="H246">
         <v>5</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I246" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>31</v>
       </c>
@@ -6997,8 +7746,11 @@
       <c r="H247">
         <v>4</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I247" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>32</v>
       </c>
@@ -7023,8 +7775,11 @@
       <c r="H248">
         <v>13</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I248" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>33</v>
       </c>
@@ -7049,8 +7804,11 @@
       <c r="H249">
         <v>8</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I249" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>34</v>
       </c>
@@ -7075,8 +7833,11 @@
       <c r="H250">
         <v>6</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I250" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>34</v>
       </c>
@@ -7101,8 +7862,11 @@
       <c r="H251">
         <v>4</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I251" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>35</v>
       </c>
@@ -7127,8 +7891,11 @@
       <c r="H252">
         <v>7</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I252" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>35</v>
       </c>
@@ -7153,8 +7920,11 @@
       <c r="H253">
         <v>7</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I253" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>35</v>
       </c>
@@ -7179,8 +7949,11 @@
       <c r="H254">
         <v>7</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I254" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>35</v>
       </c>
@@ -7205,8 +7978,11 @@
       <c r="H255">
         <v>2</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I255" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>35</v>
       </c>
@@ -7231,8 +8007,11 @@
       <c r="H256">
         <v>10</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I256" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>35</v>
       </c>
@@ -7257,8 +8036,11 @@
       <c r="H257">
         <v>4</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I257" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>35</v>
       </c>
@@ -7283,8 +8065,11 @@
       <c r="H258">
         <v>5</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I258" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>35</v>
       </c>
@@ -7309,8 +8094,11 @@
       <c r="H259">
         <v>7</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I259" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>35</v>
       </c>
@@ -7335,8 +8123,11 @@
       <c r="H260">
         <v>4</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I260" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>35</v>
       </c>
@@ -7361,8 +8152,11 @@
       <c r="H261">
         <v>5</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I261" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>36</v>
       </c>
@@ -7387,8 +8181,11 @@
       <c r="H262">
         <v>13</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>36</v>
       </c>
@@ -7413,8 +8210,11 @@
       <c r="H263">
         <v>10</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I263" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>37</v>
       </c>
@@ -7439,8 +8239,11 @@
       <c r="H264">
         <v>7</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I264" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>38</v>
       </c>
@@ -7465,8 +8268,11 @@
       <c r="H265">
         <v>12</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I265" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>38</v>
       </c>
@@ -7491,8 +8297,11 @@
       <c r="H266">
         <v>10</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I266" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>38</v>
       </c>
@@ -7517,8 +8326,11 @@
       <c r="H267">
         <v>8</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I267" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>38</v>
       </c>
@@ -7543,8 +8355,11 @@
       <c r="H268">
         <v>6</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I268" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>38</v>
       </c>
@@ -7569,8 +8384,11 @@
       <c r="H269">
         <v>11</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I269" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>38</v>
       </c>
@@ -7595,8 +8413,11 @@
       <c r="H270">
         <v>5</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I270" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>39</v>
       </c>
@@ -7621,8 +8442,11 @@
       <c r="H271">
         <v>3</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I271" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>39</v>
       </c>
@@ -7647,8 +8471,11 @@
       <c r="H272">
         <v>6</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I272" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>39</v>
       </c>
@@ -7673,8 +8500,11 @@
       <c r="H273">
         <v>9</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I273" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>39</v>
       </c>
@@ -7699,8 +8529,11 @@
       <c r="H274">
         <v>7</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I274" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>39</v>
       </c>
@@ -7725,8 +8558,11 @@
       <c r="H275">
         <v>9</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I275" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>39</v>
       </c>
@@ -7751,8 +8587,11 @@
       <c r="H276">
         <v>6</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I276" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>39</v>
       </c>
@@ -7777,8 +8616,11 @@
       <c r="H277">
         <v>10</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I277" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>40</v>
       </c>
@@ -7803,8 +8645,11 @@
       <c r="H278">
         <v>8</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I278" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>40</v>
       </c>
@@ -7829,8 +8674,11 @@
       <c r="H279">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I279" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>40</v>
       </c>
@@ -7855,8 +8703,11 @@
       <c r="H280">
         <v>4</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I280" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>40</v>
       </c>
@@ -7881,8 +8732,11 @@
       <c r="H281">
         <v>2</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I281" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>40</v>
       </c>
@@ -7907,8 +8761,11 @@
       <c r="H282">
         <v>3</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I282" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>40</v>
       </c>
@@ -7933,8 +8790,11 @@
       <c r="H283">
         <v>10</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I283" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>40</v>
       </c>
@@ -7959,8 +8819,11 @@
       <c r="H284">
         <v>10</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I284" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>40</v>
       </c>
@@ -7985,8 +8848,11 @@
       <c r="H285">
         <v>6</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I285" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>40</v>
       </c>
@@ -8011,8 +8877,11 @@
       <c r="H286">
         <v>9</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I286" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>40</v>
       </c>
@@ -8037,8 +8906,11 @@
       <c r="H287">
         <v>10</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I287" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>40</v>
       </c>
@@ -8063,8 +8935,11 @@
       <c r="H288">
         <v>2</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I288" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>40</v>
       </c>
@@ -8089,8 +8964,11 @@
       <c r="H289">
         <v>9</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I289" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>40</v>
       </c>
@@ -8115,8 +8993,11 @@
       <c r="H290">
         <v>9</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I290" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>41</v>
       </c>
@@ -8141,8 +9022,11 @@
       <c r="H291">
         <v>9</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I291" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>41</v>
       </c>
@@ -8167,8 +9051,11 @@
       <c r="H292">
         <v>8</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I292" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>41</v>
       </c>
@@ -8193,8 +9080,11 @@
       <c r="H293">
         <v>4</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I293" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>41</v>
       </c>
@@ -8219,8 +9109,11 @@
       <c r="H294">
         <v>9</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I294" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>41</v>
       </c>
@@ -8244,6 +9137,9 @@
       </c>
       <c r="H295">
         <v>7</v>
+      </c>
+      <c r="I295" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
